--- a/data/Nie_Section_B.xlsx
+++ b/data/Nie_Section_B.xlsx
@@ -1,64 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\博士文章\Mg同位素风化模型\Python\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D56471-54A7-4A6E-AE05-BEB2E1868B26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>delta_25_Mg_iso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta_25_Mg_iso_2sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta_26_Mg_iso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delta_26_Mg_iso_2sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ß</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -66,25 +66,368 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,29 +435,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -198,7 +830,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -372,329 +1004,327 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E68B6-4438-4B42-91A8-1F1A8F37F8F2}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.5535714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.2232142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5535714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.2232142857143" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88392857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>-0.109901648729265</v>
       </c>
       <c r="B2" s="3">
-        <v>4.0626876881205011E-2</v>
+        <v>0.040626876881205</v>
       </c>
       <c r="C2" s="3">
-        <v>-0.21179176037000946</v>
+        <v>-0.211791760370009</v>
       </c>
       <c r="D2" s="3">
-        <v>1.1555200939089561E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0115552009390896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
-        <v>-0.15529713824680624</v>
+        <v>-0.155297138246806</v>
       </c>
       <c r="B3" s="3">
-        <v>3.0890289993857539E-2</v>
+        <v>0.0308902899938575</v>
       </c>
       <c r="C3" s="3">
-        <v>-0.27956388502396634</v>
+        <v>-0.279563885023966</v>
       </c>
       <c r="D3" s="3">
-        <v>4.9895760941051644E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0498957609410516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
-        <v>-0.1288063475192216</v>
+        <v>-0.128806347519222</v>
       </c>
       <c r="B4" s="3">
-        <v>5.1850724944924327E-2</v>
+        <v>0.0518507249449243</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2507979426741338</v>
+        <v>-0.250797942674134</v>
       </c>
       <c r="D4" s="3">
-        <v>6.0396556208029584E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0603965562080296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
-        <v>-0.15945742348770497</v>
+        <v>-0.159457423487705</v>
       </c>
       <c r="B5" s="3">
-        <v>1.744417972586965E-2</v>
+        <v>0.0174441797258696</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.31720249704403702</v>
+        <v>-0.317202497044037</v>
       </c>
       <c r="D5" s="3">
-        <v>2.0116933916088754E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0201169339160888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
-        <v>-0.12170705141418181</v>
+        <v>-0.121707051414182</v>
       </c>
       <c r="B6" s="3">
-        <v>5.3047037558564651E-2</v>
+        <v>0.0530470375585647</v>
       </c>
       <c r="C6" s="3">
-        <v>-0.22260739358981674</v>
+        <v>-0.222607393589817</v>
       </c>
       <c r="D6" s="3">
-        <v>5.3925995826328989E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.053925995826329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>-0.13574131882647389</v>
+        <v>-0.135741318826474</v>
       </c>
       <c r="B7" s="3">
-        <v>3.7649025188297325E-2</v>
+        <v>0.0376490251882973</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.29290216635828492</v>
+        <v>-0.292902166358285</v>
       </c>
       <c r="D7" s="3">
-        <v>6.2443656811838104E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>2.5576529362243194E-2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3.0076278051754227E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.896119067844797E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5.9776537353024718E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>3.5946453272035273E-2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4.0264342620181158E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8.2633974318010228E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.5715569995224067E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>2.2491549665266453E-2</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.8028228204309767E-2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2.1744063877279007E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.3406061550579992E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>7.0612877562876486E-2</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6.0699177161014237E-2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.14830126467585059</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5.3218764980705976E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>3.7936942413381081E-2</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3.1375348715580814E-2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7.3023396218726333E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.9716876555640644E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>-3.9477737933895307E-2</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3.642748102596461E-2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-0.11124409564267435</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4.1464827559918725E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>4.4208923924459409E-2</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3.3847135037115679E-2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.2491754598907683E-2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.6967761613475126E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>3.3586669921976453E-2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5.9166154283798393E-2</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4.5034912203697264E-2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6.3367797639480125E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>4.3826287189902891E-2</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3.8847816132256907E-2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.2224864683321002E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.6438734241473768E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>2.5744886055385274E-2</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3.1098396570646634E-2</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.154456622139401E-2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3.6988133397922701E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>6.4550021967308746E-2</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1.518052361751266E-2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.11343089682863328</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2.8647096889737784E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0624436568118381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>0.0255765293622432</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.0300762780517542</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.068961190678448</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.0597765373530247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>0.0359464532720353</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.0402643426201812</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.0826339743180102</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.0457155699952241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>0.0224915496652665</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.0180282282043098</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.021744063877279</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.03340606155058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>0.0706128775628765</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.0606991771610142</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.148301264675851</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.053218764980706</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>0.0379369424133811</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.0313753487155808</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.0730233962187263</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.0297168765556406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>-0.0394777379338953</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.0364274810259646</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-0.111244095642674</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.0414648275599187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>0.0442089239244594</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.0338471350371157</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.0924917545989077</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.0169677616134751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>0.0335866699219765</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.0591661542837984</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.0450349122036973</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.0633677976394801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>0.0438262871899029</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.0388478161322569</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.062224864683321</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.0164387342414738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>0.0257448860553853</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.0310983965706466</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.031544566221394</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.0369881333979227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>0.0645500219673087</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.0151805236175127</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.113430896828633</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.0286470968897378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
-        <v>-0.19230007728077614</v>
+        <v>-0.192300077280776</v>
       </c>
       <c r="B19" s="3">
-        <v>4.4831372102936647E-2</v>
+        <v>0.0448313721029366</v>
       </c>
       <c r="C19" s="3">
-        <v>-0.38161432710089849</v>
+        <v>-0.381614327100898</v>
       </c>
       <c r="D19" s="3">
-        <v>3.1768015808182705E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0317680158081827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
-        <v>-1.7615351938120805E-2</v>
+        <v>-0.0176153519381208</v>
       </c>
       <c r="B20" s="3">
-        <v>4.086365548605541E-2</v>
+        <v>0.0408636554860554</v>
       </c>
       <c r="C20" s="3">
-        <v>-1.8038512149435526E-2</v>
+        <v>-0.0180385121494355</v>
       </c>
       <c r="D20" s="3">
-        <v>3.8461625595734808E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.0384616255957348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
-        <v>2.2097372266804083E-2</v>
+        <v>0.0220973722668041</v>
       </c>
       <c r="B21" s="3">
-        <v>3.4524558425445126E-3</v>
+        <v>0.00345245584254451</v>
       </c>
       <c r="C21" s="3">
-        <v>3.4799331900792208E-2</v>
+        <v>0.0347993319007922</v>
       </c>
       <c r="D21" s="3">
-        <v>7.3391577023750685E-3</v>
+        <v>0.00733915770237507</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>